--- a/HRM/Planning-HRM.xlsx
+++ b/HRM/Planning-HRM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acs\Project-template+cdc-HRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acs\Project-template+cdc-HRM\HRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832690A8-454C-4111-9799-3E8B7C53EB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AB6384-E59D-4CD5-896A-E363932D576E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janvier" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t xml:space="preserve">  ANNÉE DU CALENDRIER</t>
   </si>
@@ -750,7 +750,7 @@
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -796,9 +796,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -817,27 +814,39 @@
     <xf numFmtId="0" fontId="18" fillId="38" borderId="2" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -850,23 +859,11 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1265,7 +1262,7 @@
   </sheetPr>
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -1279,10 +1276,10 @@
       <c r="B1" s="3">
         <v>2022</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1291,10 +1288,10 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1381,37 +1378,37 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <f t="array" ref="B8:H8">INDEX(calendrier,ndx+2)</f>
         <v>44571</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>44572</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>44573</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>44574</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <v>44575</v>
       </c>
       <c r="G8" s="8">
@@ -1422,37 +1419,37 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <f t="array" ref="B10:H10">INDEX(calendrier,ndx+3)</f>
         <v>44578</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>44579</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>44580</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>44581</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <v>44582</v>
       </c>
       <c r="G10" s="8">
@@ -1463,33 +1460,33 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="18" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <f t="array" ref="B12:H12">INDEX(calendrier,ndx+4)</f>
         <v>44585</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>44586</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>44587</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <v>44588</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <v>44589</v>
       </c>
       <c r="G12" s="8">
@@ -1500,35 +1497,35 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <f t="array" ref="B14:H14">INDEX(calendrier,ndx+5)</f>
         <v>44592</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>44593</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>44594</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>44595</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <v>44596</v>
       </c>
       <c r="G14" s="8">
@@ -1539,25 +1536,25 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:H6">
     <cfRule type="expression" dxfId="11" priority="6">
@@ -1620,8 +1617,8 @@
   </sheetPr>
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,10 +1631,10 @@
       <c r="B1" s="3">
         <v>2022</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1646,10 +1643,10 @@
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1703,31 +1700,31 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="36"/>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="25"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <f t="array" ref="B6:H6">INDEX(calendrier,ndx+1)</f>
         <v>44599</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>44600</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>44601</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>44602</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>44603</v>
       </c>
       <c r="G6" s="8">
@@ -1738,15 +1735,15 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
@@ -1775,15 +1772,15 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="11"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
@@ -1812,10 +1809,12 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="16"/>
+      <c r="B11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="10"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1887,13 +1886,14 @@
       <c r="H15" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B9:D9"/>
+  <mergeCells count="7">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C5:F5"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:H6">
     <cfRule type="expression" dxfId="5" priority="6">
